--- a/biology/Zoologie/Héron_intermédiaire/Héron_intermédiaire.xlsx
+++ b/biology/Zoologie/Héron_intermédiaire/Héron_intermédiaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_interm%C3%A9diaire</t>
+          <t>Héron_intermédiaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardea intermedia
 Le Héron intermédiaire (Ardea intermedia), anciennement Aigrette intermédiaire, est une espèce d'oiseaux de la famille des Ardéidés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_interm%C3%A9diaire</t>
+          <t>Héron_intermédiaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition est vaste. Cette espèce niche en Afrique subsaharienne, en Asie du Sud et du Sud-Est, et en Australie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_interm%C3%A9diaire</t>
+          <t>Héron_intermédiaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'habitat de cet oiseau est constitué de marais, de rizières, de lagunes et de champs inondés.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_interm%C3%A9diaire</t>
+          <t>Héron_intermédiaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau au plumage blanc immaculé, ressemble beaucoup à plusieurs espèces d'Aigrettes, qui vivent dans les mêmes pays. La taille est proche de celle de l'Aigrette garzette (67 cm), mais, comme la Grande Aigrette (qui est beaucoup plus volumineuse) elle ne possède pas de longues plumes sur la nuque, elle a un bec jaune (parfois noir ou verdâtre) et des pattes noires. Elle peut parfois être confondue avec le Héron garde-bœufs, qui a une coloration semblable (mais un aspect général plus ramassé et une biologie bien différente). Cette espèce ne présente pas de dimorphisme sexuel.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_interm%C3%A9diaire</t>
+          <t>Héron_intermédiaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comportement proche de celui de l'Aigrette garzette, cet oiseau chasse en eau peu profonde des poissons, des crustacés et des insectes.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_interm%C3%A9diaire</t>
+          <t>Héron_intermédiaire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Niche en colonies, souvent avec d'autres espèces de hérons et autres oiseaux aquatiques, dans des arbres, des roselières ou parfois sur des rochers. Le nid est une plate-forme de branches, de joncs et d'herbes.
 Deux à quatre œufs bleus sont pondus, et couvés pendant de 24 à 27 jours. Les jeunes restent au nid pendant trois semaines.
